--- a/xlsx/nor_oda_sectors_oneyear.xlsx
+++ b/xlsx/nor_oda_sectors_oneyear.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,135 +401,190 @@
           <t>prop_target_area</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>textcolor</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Multisektor og annet</t>
+          <t>Miljø og energi</t>
         </is>
       </c>
       <c r="B2">
-        <v>6.34104257288</v>
+        <v>8.062726727899999</v>
       </c>
       <c r="C2">
-        <v>0.1082387944318588</v>
+        <v>0.1376271820968165</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Miljø og energi</t>
+          <t>Styresett, sivilt samfunn og konfliktforebygging</t>
         </is>
       </c>
       <c r="B3">
-        <v>8.062726727899999</v>
+        <v>5.34156403387</v>
       </c>
       <c r="C3">
-        <v>0.1376271820968165</v>
+        <v>0.09117813746897342</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Styresett, sivilt samfunn og konfliktforebygging</t>
+          <t>Utdanning</t>
         </is>
       </c>
       <c r="B4">
-        <v>5.34156403387</v>
+        <v>2.11734428207</v>
       </c>
       <c r="C4">
-        <v>0.09117813746897342</v>
+        <v>0.03614213118022911</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kostnader i Norge og uspesifisert</t>
+          <t>Produksjon og handel</t>
         </is>
       </c>
       <c r="B5">
-        <v>7.117921576</v>
+        <v>3.2235388956</v>
       </c>
       <c r="C5">
-        <v>0.1214997756901729</v>
+        <v>0.05502438437430005</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Produksjon og handel</t>
+          <t>Kostnader i Norge og uspesifisert</t>
         </is>
       </c>
       <c r="B6">
-        <v>3.2235388956</v>
+        <v>7.117921576</v>
       </c>
       <c r="C6">
-        <v>0.05502438437430005</v>
+        <v>0.1214997756901729</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Øk. utv. og tjenester</t>
+          <t>Nødhjelp</t>
         </is>
       </c>
       <c r="B7">
-        <v>2.130980591</v>
+        <v>10.00011902355</v>
       </c>
       <c r="C7">
-        <v>0.03637489694739116</v>
+        <v>0.1706976123947612</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Utdanning</t>
+          <t>Helse og sosiale tjenester</t>
         </is>
       </c>
       <c r="B8">
-        <v>2.11734428207</v>
+        <v>3.47206517181</v>
       </c>
       <c r="C8">
-        <v>0.03614213118022911</v>
+        <v>0.05926661807836931</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nødhjelp</t>
+          <t>Multilateral kjernestøtte</t>
         </is>
       </c>
       <c r="B9">
-        <v>10.00011902355</v>
+        <v>10.776521956</v>
       </c>
       <c r="C9">
-        <v>0.1706976123947612</v>
+        <v>0.1839504673371275</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Helse og sosiale tjenester</t>
+          <t>Multisektor og annet</t>
         </is>
       </c>
       <c r="B10">
-        <v>3.47206517181</v>
+        <v>6.34104257288</v>
       </c>
       <c r="C10">
-        <v>0.05926661807836931</v>
+        <v>0.1082387944318588</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Multilateral kjernestøtte</t>
+          <t>Øk. utv. og tjenester</t>
         </is>
       </c>
       <c r="B11">
-        <v>10.776521956</v>
+        <v>2.130980591</v>
       </c>
       <c r="C11">
-        <v>0.1839504673371275</v>
+        <v>0.03637489694739116</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_sectors_oneyear.xlsx
+++ b/xlsx/nor_oda_sectors_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -414,10 +414,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>8.062726727899999</v>
+        <v>9.42410284044</v>
       </c>
       <c r="C2">
-        <v>0.1376271820968165</v>
+        <v>0.1692369640229853</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -428,14 +428,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Styresett, sivilt samfunn og konfliktforebygging</t>
+          <t>Utdanning</t>
         </is>
       </c>
       <c r="B3">
-        <v>5.34156403387</v>
+        <v>2.1295611032</v>
       </c>
       <c r="C3">
-        <v>0.09117813746897342</v>
+        <v>0.03824241542234493</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -446,14 +446,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Utdanning</t>
+          <t>Styresett, sivilt samfunn og konfliktforebygging</t>
         </is>
       </c>
       <c r="B4">
-        <v>2.11734428207</v>
+        <v>5.10657516839</v>
       </c>
       <c r="C4">
-        <v>0.03614213118022911</v>
+        <v>0.09170329448708979</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -464,32 +464,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Produksjon og handel</t>
+          <t>Multisektor og annet</t>
         </is>
       </c>
       <c r="B5">
-        <v>3.2235388956</v>
+        <v>5.554791134</v>
       </c>
       <c r="C5">
-        <v>0.05502438437430005</v>
+        <v>0.09975230568006671</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>white</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kostnader i Norge og uspesifisert</t>
+          <t>Nødhjelp</t>
         </is>
       </c>
       <c r="B6">
-        <v>7.117921576</v>
+        <v>8.03488632815</v>
       </c>
       <c r="C6">
-        <v>0.1214997756901729</v>
+        <v>0.144289572330517</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -500,14 +500,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nødhjelp</t>
+          <t>Produksjon og handel</t>
         </is>
       </c>
       <c r="B7">
-        <v>10.00011902355</v>
+        <v>2.25032103458</v>
       </c>
       <c r="C7">
-        <v>0.1706976123947612</v>
+        <v>0.04041100849782341</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -518,32 +518,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Helse og sosiale tjenester</t>
+          <t>Kostnader i Norge og uspesifisert</t>
         </is>
       </c>
       <c r="B8">
-        <v>3.47206517181</v>
+        <v>6.728792957</v>
       </c>
       <c r="C8">
-        <v>0.05926661807836931</v>
+        <v>0.1208348965267402</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>black</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Multilateral kjernestøtte</t>
+          <t>Helse og sosiale tjenester</t>
         </is>
       </c>
       <c r="B9">
-        <v>10.776521956</v>
+        <v>3.1934795681</v>
       </c>
       <c r="C9">
-        <v>0.1839504673371275</v>
+        <v>0.05734814187887674</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -554,14 +554,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Multisektor og annet</t>
+          <t>Øk. utv. og tjenester</t>
         </is>
       </c>
       <c r="B10">
-        <v>6.34104257288</v>
+        <v>2.1270787448</v>
       </c>
       <c r="C10">
-        <v>0.1082387944318588</v>
+        <v>0.03819783751330193</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -572,14 +572,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Øk. utv. og tjenester</t>
+          <t>Multilateral kjernestøtte</t>
         </is>
       </c>
       <c r="B11">
-        <v>2.130980591</v>
+        <v>11.136253129</v>
       </c>
       <c r="C11">
-        <v>0.03637489694739116</v>
+        <v>0.1999835636402539</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/xlsx/nor_oda_sectors_oneyear.xlsx
+++ b/xlsx/nor_oda_sectors_oneyear.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,190 +401,135 @@
           <t>prop_target_area</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>textcolor</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Miljø og energi</t>
+          <t>Multilateral kjernestøtte</t>
         </is>
       </c>
       <c r="B2">
-        <v>9.42410284044</v>
+        <v>11.136253129</v>
       </c>
       <c r="C2">
-        <v>0.1692369640229853</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
+        <v>0.1999835636402539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Utdanning</t>
+          <t>Miljø og energi</t>
         </is>
       </c>
       <c r="B3">
-        <v>2.1295611032</v>
+        <v>9.42410284044</v>
       </c>
       <c r="C3">
-        <v>0.03824241542234493</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
+        <v>0.1692369640229853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Styresett, sivilt samfunn og konfliktforebygging</t>
+          <t>Nødhjelp</t>
         </is>
       </c>
       <c r="B4">
-        <v>5.10657516839</v>
+        <v>8.03488632815</v>
       </c>
       <c r="C4">
-        <v>0.09170329448708979</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
+        <v>0.144289572330517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Multisektor og annet</t>
+          <t>Kostnader i Norge og uspesifisert</t>
         </is>
       </c>
       <c r="B5">
-        <v>5.554791134</v>
+        <v>6.728792957</v>
       </c>
       <c r="C5">
-        <v>0.09975230568006671</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
+        <v>0.1208348965267402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nødhjelp</t>
+          <t>Multisektor og annet</t>
         </is>
       </c>
       <c r="B6">
-        <v>8.03488632815</v>
+        <v>5.554791134</v>
       </c>
       <c r="C6">
-        <v>0.144289572330517</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
+        <v>0.09975230568006671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Produksjon og handel</t>
+          <t>Styresett, sivilt samfunn og konfliktforebygging</t>
         </is>
       </c>
       <c r="B7">
-        <v>2.25032103458</v>
+        <v>5.10657516839</v>
       </c>
       <c r="C7">
-        <v>0.04041100849782341</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
+        <v>0.09170329448708979</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kostnader i Norge og uspesifisert</t>
+          <t>Helse og sosiale tjenester</t>
         </is>
       </c>
       <c r="B8">
-        <v>6.728792957</v>
+        <v>3.1934795681</v>
       </c>
       <c r="C8">
-        <v>0.1208348965267402</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
+        <v>0.05734814187887674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Helse og sosiale tjenester</t>
+          <t>Produksjon og handel</t>
         </is>
       </c>
       <c r="B9">
-        <v>3.1934795681</v>
+        <v>2.25032103458</v>
       </c>
       <c r="C9">
-        <v>0.05734814187887674</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
+        <v>0.04041100849782341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Øk. utv. og tjenester</t>
+          <t>Utdanning</t>
         </is>
       </c>
       <c r="B10">
-        <v>2.1270787448</v>
+        <v>2.1295611032</v>
       </c>
       <c r="C10">
-        <v>0.03819783751330193</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
+        <v>0.03824241542234493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Multilateral kjernestøtte</t>
+          <t>Øk. utv. og tjenester</t>
         </is>
       </c>
       <c r="B11">
-        <v>11.136253129</v>
+        <v>2.1270787448</v>
       </c>
       <c r="C11">
-        <v>0.1999835636402539</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
+        <v>0.03819783751330193</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_sectors_oneyear.xlsx
+++ b/xlsx/nor_oda_sectors_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand fordelt på sektorer. 2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
